--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1225,9 +1225,10 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
+    <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" hidden="1" min="7" max="10" width="10.75"/>
+    <col customWidth="1" min="11" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1622,7 +1623,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1636,7 +1637,9 @@
       <c r="J7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1688,7 +1691,9 @@
       <c r="J8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
@@ -1726,7 +1731,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1740,7 +1745,9 @@
       <c r="J9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
@@ -1774,7 +1781,7 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1792,7 +1799,9 @@
       <c r="J10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
@@ -1830,7 +1839,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1844,7 +1853,9 @@
       <c r="J11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
@@ -1882,7 +1893,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1896,7 +1907,9 @@
       <c r="J12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
@@ -1930,7 +1943,7 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -1948,7 +1961,9 @@
       <c r="J13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
@@ -1986,7 +2001,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2000,7 +2015,9 @@
       <c r="J14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
@@ -2034,7 +2051,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -2052,7 +2069,9 @@
       <c r="J15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
@@ -2086,7 +2105,7 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
@@ -2104,7 +2123,9 @@
       <c r="J16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
@@ -2142,7 +2163,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2156,7 +2177,9 @@
       <c r="J17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -2194,7 +2217,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2208,7 +2231,9 @@
       <c r="J18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -2242,7 +2267,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2260,7 +2285,9 @@
       <c r="J19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -2298,7 +2325,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2312,7 +2339,9 @@
       <c r="J20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
@@ -2350,7 +2379,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2364,7 +2393,9 @@
       <c r="J21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
@@ -2402,7 +2433,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2416,7 +2447,9 @@
       <c r="J22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="37"/>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -2454,7 +2487,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2468,7 +2501,9 @@
       <c r="J23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
@@ -2502,7 +2537,7 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
@@ -2520,7 +2555,9 @@
       <c r="J24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -2558,7 +2595,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2572,7 +2609,9 @@
       <c r="J25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="37"/>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
@@ -2610,7 +2649,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2624,7 +2663,9 @@
       <c r="J26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
@@ -2658,7 +2699,7 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -2676,7 +2717,9 @@
       <c r="J27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="37"/>
+      <c r="K27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -2714,7 +2757,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2728,7 +2771,9 @@
       <c r="J28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="37"/>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -2766,7 +2811,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -2780,7 +2825,9 @@
       <c r="J29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="37"/>
+      <c r="K29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
@@ -2818,7 +2865,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2832,7 +2879,9 @@
       <c r="J30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -2870,7 +2919,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2884,7 +2933,9 @@
       <c r="J31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="37"/>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -2922,7 +2973,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2936,7 +2987,9 @@
       <c r="J32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="37"/>
+      <c r="K32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
@@ -2974,7 +3027,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -2988,7 +3041,9 @@
       <c r="J33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="37"/>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -3022,7 +3077,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3040,7 +3095,9 @@
       <c r="J34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="37"/>
+      <c r="K34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -3078,7 +3135,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3092,7 +3149,9 @@
       <c r="J35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="37"/>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -3130,7 +3189,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3144,7 +3203,9 @@
       <c r="J36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
@@ -3182,7 +3243,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3196,7 +3257,9 @@
       <c r="J37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="37"/>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
@@ -3234,7 +3297,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3248,7 +3311,9 @@
       <c r="J38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="37"/>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
@@ -3286,7 +3351,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3300,7 +3365,9 @@
       <c r="J39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="37"/>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -3338,7 +3405,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3352,7 +3419,9 @@
       <c r="J40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="37"/>
+      <c r="K40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -3390,7 +3459,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3404,7 +3473,9 @@
       <c r="J41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="37"/>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
@@ -3442,7 +3513,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3456,7 +3527,9 @@
       <c r="J42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="37"/>
+      <c r="K42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
@@ -3494,7 +3567,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -3508,7 +3581,9 @@
       <c r="J43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="37"/>
+      <c r="K43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
@@ -3546,7 +3621,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3560,7 +3635,9 @@
       <c r="J44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="37"/>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
@@ -3598,7 +3675,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3612,7 +3689,9 @@
       <c r="J45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="37"/>
+      <c r="K45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
       <c r="N45" s="37"/>
@@ -3650,7 +3729,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3664,7 +3743,9 @@
       <c r="J46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="37"/>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
       <c r="N46" s="37"/>
@@ -3702,7 +3783,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3716,7 +3797,9 @@
       <c r="J47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="37"/>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
@@ -3754,7 +3837,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -3768,7 +3851,9 @@
       <c r="J48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="37"/>
+      <c r="K48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
@@ -3802,7 +3887,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -3820,7 +3905,9 @@
       <c r="J49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="37"/>
+      <c r="K49" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
       <c r="N49" s="37"/>
@@ -3858,7 +3945,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -3872,7 +3959,9 @@
       <c r="J50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="37"/>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
       <c r="N50" s="37"/>
@@ -3910,7 +3999,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -3924,7 +4013,9 @@
       <c r="J51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="37"/>
+      <c r="K51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
       <c r="N51" s="37"/>
@@ -3962,7 +4053,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -3976,7 +4067,9 @@
       <c r="J52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="37"/>
+      <c r="K52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
@@ -4014,7 +4107,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4028,7 +4121,9 @@
       <c r="J53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K53" s="37"/>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L53" s="37"/>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
@@ -4066,7 +4161,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4080,7 +4175,9 @@
       <c r="J54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="37"/>
+      <c r="K54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
       <c r="N54" s="37"/>
@@ -4118,7 +4215,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4132,7 +4229,9 @@
       <c r="J55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="37"/>
+      <c r="K55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
       <c r="N55" s="37"/>
@@ -4170,7 +4269,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4184,7 +4283,9 @@
       <c r="J56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="37"/>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
       <c r="N56" s="37"/>
@@ -4222,7 +4323,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -4236,7 +4337,9 @@
       <c r="J57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="37"/>
+      <c r="K57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37"/>
       <c r="N57" s="37"/>
@@ -4274,7 +4377,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4288,7 +4391,9 @@
       <c r="J58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="37"/>
+      <c r="K58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
       <c r="N58" s="37"/>
@@ -4326,7 +4431,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -4340,7 +4445,9 @@
       <c r="J59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="37"/>
+      <c r="K59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
       <c r="N59" s="37"/>
@@ -4378,7 +4485,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4392,7 +4499,9 @@
       <c r="J60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="37"/>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
       <c r="N60" s="37"/>
@@ -4430,7 +4539,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4444,7 +4553,9 @@
       <c r="J61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="37"/>
+      <c r="K61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
@@ -4482,7 +4593,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4496,7 +4607,9 @@
       <c r="J62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="37"/>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L62" s="37"/>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
@@ -4534,7 +4647,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4548,7 +4661,9 @@
       <c r="J63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="37"/>
+      <c r="K63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L63" s="37"/>
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
@@ -4586,7 +4701,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -4600,7 +4715,9 @@
       <c r="J64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="37"/>
+      <c r="K64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -4634,7 +4751,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4652,7 +4769,9 @@
       <c r="J65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="37"/>
+      <c r="K65" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
@@ -4690,7 +4809,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4704,7 +4823,9 @@
       <c r="J66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="37"/>
+      <c r="K66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
@@ -4742,7 +4863,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -4756,7 +4877,9 @@
       <c r="J67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="37"/>
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
@@ -4794,7 +4917,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -4808,7 +4931,9 @@
       <c r="J68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="37"/>
+      <c r="K68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L68" s="37"/>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
@@ -4846,7 +4971,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -4860,7 +4985,9 @@
       <c r="J69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="37"/>
+      <c r="K69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
@@ -4898,7 +5025,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -4912,7 +5039,9 @@
       <c r="J70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="37"/>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37"/>
       <c r="N70" s="37"/>
@@ -4950,7 +5079,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -4964,7 +5093,9 @@
       <c r="J71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="37"/>
+      <c r="K71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L71" s="37"/>
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
@@ -5002,7 +5133,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5016,7 +5147,9 @@
       <c r="J72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="37"/>
+      <c r="K72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L72" s="37"/>
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
@@ -5054,7 +5187,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5068,7 +5201,9 @@
       <c r="J73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="37"/>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L73" s="37"/>
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
@@ -5106,7 +5241,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5120,7 +5255,9 @@
       <c r="J74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="37"/>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L74" s="37"/>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
@@ -5158,7 +5295,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5172,7 +5309,9 @@
       <c r="J75" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="37"/>
+      <c r="K75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L75" s="37"/>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
@@ -5206,7 +5345,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -5224,7 +5363,9 @@
       <c r="J76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="37"/>
+      <c r="K76" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
       <c r="N76" s="37"/>
@@ -5262,7 +5403,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -5276,7 +5417,9 @@
       <c r="J77" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K77" s="37"/>
+      <c r="K77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
@@ -5314,7 +5457,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>20</v>
@@ -5328,7 +5471,9 @@
       <c r="J78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="37"/>
+      <c r="K78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
       <c r="N78" s="37"/>
@@ -5366,7 +5511,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -5380,7 +5525,9 @@
       <c r="J79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="37"/>
+      <c r="K79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
@@ -5418,7 +5565,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>20</v>
@@ -5432,7 +5579,9 @@
       <c r="J80" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="37"/>
+      <c r="K80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
       <c r="N80" s="37"/>
@@ -5470,7 +5619,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -5484,7 +5633,9 @@
       <c r="J81" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="37"/>
+      <c r="K81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
       <c r="N81" s="37"/>
@@ -5522,7 +5673,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>20</v>
@@ -5536,7 +5687,9 @@
       <c r="J82" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="37"/>
+      <c r="K82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
       <c r="N82" s="37"/>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1227,8 +1227,8 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" hidden="1" min="7" max="10" width="10.75"/>
-    <col customWidth="1" min="11" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="7" max="14" width="10.75"/>
+    <col customWidth="1" min="15" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1640,8 +1640,12 @@
       <c r="K7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="L7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1694,8 +1698,12 @@
       <c r="K8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="L8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -1727,11 +1735,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1748,8 +1756,12 @@
       <c r="K9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="L9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
@@ -1781,12 +1793,12 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F10" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
       </c>
@@ -1802,8 +1814,12 @@
       <c r="K10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="L10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
@@ -1839,7 +1855,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1856,8 +1872,12 @@
       <c r="K11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="L11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -1893,7 +1913,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1910,8 +1930,12 @@
       <c r="K12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="L12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -1943,7 +1967,7 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -1964,8 +1988,12 @@
       <c r="K13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="L13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
@@ -2001,7 +2029,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2018,8 +2046,12 @@
       <c r="K14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
@@ -2051,12 +2083,12 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F15" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
@@ -2072,8 +2104,12 @@
       <c r="K15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="L15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -2105,7 +2141,7 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
@@ -2126,8 +2162,12 @@
       <c r="K16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="L16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -2163,7 +2203,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2180,8 +2220,12 @@
       <c r="K17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="L17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -2213,11 +2257,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2234,8 +2278,12 @@
       <c r="K18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="L18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -2271,7 +2319,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>20</v>
@@ -2288,8 +2336,12 @@
       <c r="K19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="L19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -2321,7 +2373,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2342,8 +2394,12 @@
       <c r="K20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="L20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -2379,7 +2435,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2396,8 +2452,12 @@
       <c r="K21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="L21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -2433,7 +2493,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2450,8 +2510,12 @@
       <c r="K22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -2487,7 +2551,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2504,8 +2568,12 @@
       <c r="K23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
+      <c r="L23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
@@ -2541,7 +2609,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2558,8 +2626,12 @@
       <c r="K24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
+      <c r="L24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -2595,7 +2667,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2612,8 +2684,12 @@
       <c r="K25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
+      <c r="L25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
@@ -2645,11 +2721,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2666,8 +2742,12 @@
       <c r="K26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="L26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -2699,7 +2779,7 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -2720,8 +2800,12 @@
       <c r="K27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="L27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
@@ -2753,11 +2837,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2774,8 +2858,12 @@
       <c r="K28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="L28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
@@ -2811,7 +2899,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -2828,8 +2916,12 @@
       <c r="K29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="L29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
@@ -2861,11 +2953,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2882,8 +2974,12 @@
       <c r="K30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="L30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
@@ -2915,11 +3011,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2936,8 +3032,12 @@
       <c r="K31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
+      <c r="L31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
@@ -2969,11 +3069,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -2990,8 +3090,12 @@
       <c r="K32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
+      <c r="L32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
@@ -3027,7 +3131,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3044,8 +3148,12 @@
       <c r="K33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N33" s="37"/>
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
@@ -3077,11 +3185,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3098,8 +3206,12 @@
       <c r="K34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+      <c r="L34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
@@ -3131,11 +3243,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3152,8 +3264,12 @@
       <c r="K35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+      <c r="L35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
@@ -3185,11 +3301,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3206,8 +3322,12 @@
       <c r="K36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+      <c r="L36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
@@ -3243,7 +3363,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3260,8 +3380,12 @@
       <c r="K37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
@@ -3297,7 +3421,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3314,8 +3438,12 @@
       <c r="K38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
+      <c r="L38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
@@ -3351,7 +3479,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3368,8 +3496,12 @@
       <c r="K39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
+      <c r="L39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
@@ -3405,7 +3537,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3422,8 +3554,12 @@
       <c r="K40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="L40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
@@ -3459,7 +3595,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3476,8 +3612,12 @@
       <c r="K41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
+      <c r="L41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
@@ -3509,11 +3649,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3530,8 +3670,12 @@
       <c r="K42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
+      <c r="L42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
       <c r="P42" s="37"/>
@@ -3567,7 +3711,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -3584,8 +3728,12 @@
       <c r="K43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
+      <c r="L43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
@@ -3621,7 +3769,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3638,8 +3786,12 @@
       <c r="K44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
+      <c r="L44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
       <c r="P44" s="37"/>
@@ -3671,11 +3823,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3692,8 +3844,12 @@
       <c r="K45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
+      <c r="L45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
       <c r="P45" s="37"/>
@@ -3725,11 +3881,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3746,8 +3902,12 @@
       <c r="K46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="L46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
@@ -3779,7 +3939,7 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
@@ -3800,8 +3960,12 @@
       <c r="K47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
+      <c r="L47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
       <c r="P47" s="37"/>
@@ -3833,11 +3997,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -3854,8 +4018,12 @@
       <c r="K48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
+      <c r="L48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
       <c r="P48" s="37"/>
@@ -3891,7 +4059,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -3908,8 +4076,12 @@
       <c r="K49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
+      <c r="L49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N49" s="37"/>
       <c r="O49" s="37"/>
       <c r="P49" s="37"/>
@@ -3941,11 +4113,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -3962,8 +4134,12 @@
       <c r="K50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
+      <c r="L50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
@@ -3999,7 +4175,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4016,8 +4192,12 @@
       <c r="K51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
+      <c r="L51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
@@ -4049,11 +4229,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4070,8 +4250,12 @@
       <c r="K52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
+      <c r="L52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
@@ -4103,11 +4287,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4124,8 +4308,12 @@
       <c r="K53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
+      <c r="L53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N53" s="37"/>
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
@@ -4157,11 +4345,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4178,8 +4366,12 @@
       <c r="K54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
+      <c r="L54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N54" s="37"/>
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
@@ -4211,11 +4403,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4232,8 +4424,12 @@
       <c r="K55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
+      <c r="L55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N55" s="37"/>
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
@@ -4269,7 +4465,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4286,8 +4482,12 @@
       <c r="K56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
+      <c r="L56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N56" s="37"/>
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
@@ -4323,7 +4523,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -4340,8 +4540,12 @@
       <c r="K57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
+      <c r="L57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N57" s="37"/>
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
@@ -4373,11 +4577,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4394,8 +4598,12 @@
       <c r="K58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
+      <c r="L58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
@@ -4427,11 +4635,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -4448,8 +4656,12 @@
       <c r="K59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
+      <c r="L59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N59" s="37"/>
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
@@ -4481,11 +4693,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4502,8 +4714,12 @@
       <c r="K60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
+      <c r="L60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
@@ -4535,11 +4751,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4556,8 +4772,12 @@
       <c r="K61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
+      <c r="L61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N61" s="37"/>
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
@@ -4589,11 +4809,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4610,8 +4830,12 @@
       <c r="K62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
+      <c r="L62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N62" s="37"/>
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
@@ -4647,7 +4871,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4664,8 +4888,12 @@
       <c r="K63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
@@ -4701,7 +4929,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -4718,8 +4946,12 @@
       <c r="K64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
+      <c r="L64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
@@ -4755,7 +4987,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -4772,8 +5004,12 @@
       <c r="K65" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
@@ -4805,7 +5041,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -4826,8 +5062,12 @@
       <c r="K66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
+      <c r="L66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
@@ -4859,11 +5099,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -4880,8 +5120,12 @@
       <c r="K67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
+      <c r="L67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
       <c r="P67" s="37"/>
@@ -4913,7 +5157,7 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -4934,8 +5178,12 @@
       <c r="K68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
+      <c r="L68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
@@ -4971,7 +5219,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -4988,8 +5236,12 @@
       <c r="K69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
+      <c r="L69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
@@ -5021,11 +5273,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5042,8 +5294,12 @@
       <c r="K70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
+      <c r="L70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
@@ -5079,7 +5335,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5096,8 +5352,12 @@
       <c r="K71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
+      <c r="L71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
       <c r="P71" s="37"/>
@@ -5129,11 +5389,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5150,8 +5410,12 @@
       <c r="K72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
+      <c r="L72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N72" s="37"/>
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
@@ -5183,7 +5447,7 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
@@ -5204,8 +5468,12 @@
       <c r="K73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
+      <c r="L73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
@@ -5241,7 +5509,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5258,8 +5526,12 @@
       <c r="K74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
+      <c r="L74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
@@ -5295,7 +5567,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5312,8 +5584,12 @@
       <c r="K75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
+      <c r="L75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
@@ -5345,11 +5621,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -5366,8 +5642,12 @@
       <c r="K76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
+      <c r="L76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N76" s="37"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
@@ -5399,11 +5679,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -5420,8 +5700,12 @@
       <c r="K77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
+      <c r="L77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N77" s="37"/>
       <c r="O77" s="37"/>
       <c r="P77" s="37"/>
@@ -5453,11 +5737,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>20</v>
@@ -5474,8 +5758,12 @@
       <c r="K78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
+      <c r="L78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N78" s="37"/>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
@@ -5511,7 +5799,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -5528,8 +5816,12 @@
       <c r="K79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
+      <c r="L79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N79" s="37"/>
       <c r="O79" s="37"/>
       <c r="P79" s="37"/>
@@ -5561,7 +5853,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
@@ -5582,8 +5874,12 @@
       <c r="K80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
+      <c r="L80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N80" s="37"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
@@ -5619,7 +5915,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -5636,8 +5932,12 @@
       <c r="K81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
+      <c r="L81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N81" s="37"/>
       <c r="O81" s="37"/>
       <c r="P81" s="37"/>
@@ -5669,11 +5969,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>20</v>
@@ -5690,8 +5990,12 @@
       <c r="K82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
+      <c r="L82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N82" s="37"/>
       <c r="O82" s="37"/>
       <c r="P82" s="37"/>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -1227,8 +1227,8 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" hidden="1" min="7" max="14" width="10.75"/>
-    <col customWidth="1" min="15" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="7" max="16" width="10.75"/>
+    <col customWidth="1" min="17" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1227,8 +1227,8 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
     <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" hidden="1" min="7" max="16" width="10.75"/>
-    <col customWidth="1" min="17" max="26" width="10.75"/>
+    <col customWidth="1" hidden="1" min="7" max="17" width="10.75"/>
+    <col customWidth="1" min="18" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1646,10 +1646,18 @@
       <c r="M7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
@@ -1677,11 +1685,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1704,10 +1712,18 @@
       <c r="M8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="N8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -1735,11 +1751,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1762,10 +1778,18 @@
       <c r="M9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
+      <c r="N9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -1797,7 +1821,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1820,10 +1844,18 @@
       <c r="M10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -1851,11 +1883,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1878,10 +1910,18 @@
       <c r="M11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
+      <c r="N11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -1909,11 +1949,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1936,10 +1976,18 @@
       <c r="M12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="N12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -1971,7 +2019,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -1994,10 +2042,18 @@
       <c r="M13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="N13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -2029,7 +2085,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2052,10 +2108,18 @@
       <c r="M14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
@@ -2087,7 +2151,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2110,10 +2174,18 @@
       <c r="M15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -2145,7 +2217,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2168,10 +2240,18 @@
       <c r="M16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -2203,7 +2283,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2226,10 +2306,18 @@
       <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="N17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
@@ -2261,7 +2349,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2284,10 +2372,18 @@
       <c r="M18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
@@ -2315,11 +2411,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>20</v>
@@ -2342,10 +2438,18 @@
       <c r="M19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
@@ -2377,7 +2481,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2400,10 +2504,18 @@
       <c r="M20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
@@ -2431,11 +2543,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2458,10 +2570,18 @@
       <c r="M21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
+      <c r="N21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -2493,7 +2613,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2516,10 +2636,18 @@
       <c r="M22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
@@ -2551,7 +2679,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2574,10 +2702,18 @@
       <c r="M23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
@@ -2605,11 +2741,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2632,10 +2768,18 @@
       <c r="M24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -2663,11 +2807,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2690,10 +2834,18 @@
       <c r="M25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
+      <c r="N25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -2721,11 +2873,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2748,10 +2900,18 @@
       <c r="M26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
@@ -2779,11 +2939,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -2806,10 +2966,18 @@
       <c r="M27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -2841,7 +3009,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2864,10 +3032,18 @@
       <c r="M28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
@@ -2895,11 +3071,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -2922,10 +3098,18 @@
       <c r="M29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
+      <c r="N29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
@@ -2957,7 +3141,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2980,10 +3164,18 @@
       <c r="M30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="37"/>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -3015,7 +3207,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3038,10 +3230,18 @@
       <c r="M31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="37"/>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
@@ -3069,11 +3269,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3096,10 +3296,18 @@
       <c r="M32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -3127,11 +3335,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3154,10 +3362,18 @@
       <c r="M33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
@@ -3189,7 +3405,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3212,10 +3428,18 @@
       <c r="M34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
@@ -3247,7 +3471,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3270,10 +3494,18 @@
       <c r="M35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
+      <c r="N35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
@@ -3305,7 +3537,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3328,10 +3560,18 @@
       <c r="M36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
@@ -3359,11 +3599,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3386,10 +3626,18 @@
       <c r="M37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
@@ -3421,7 +3669,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3444,10 +3692,18 @@
       <c r="M38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
@@ -3479,7 +3735,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3502,10 +3758,18 @@
       <c r="M39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
@@ -3537,7 +3801,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3560,10 +3824,18 @@
       <c r="M40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
@@ -3595,7 +3867,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3618,10 +3890,18 @@
       <c r="M41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
@@ -3649,11 +3929,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3676,10 +3956,18 @@
       <c r="M42" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
+      <c r="N42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
@@ -3711,7 +3999,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -3734,10 +4022,18 @@
       <c r="M43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -3769,7 +4065,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3792,10 +4088,18 @@
       <c r="M44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
@@ -3827,7 +4131,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3850,10 +4154,18 @@
       <c r="M45" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
@@ -3881,11 +4193,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3908,10 +4220,18 @@
       <c r="M46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
+      <c r="N46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
@@ -3943,7 +4263,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3966,10 +4286,18 @@
       <c r="M47" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
@@ -3997,11 +4325,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4024,10 +4352,18 @@
       <c r="M48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
+      <c r="N48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
@@ -4059,7 +4395,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4082,10 +4418,18 @@
       <c r="M49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
@@ -4117,7 +4461,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4140,10 +4484,18 @@
       <c r="M50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
+      <c r="N50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
@@ -4175,7 +4527,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4198,10 +4550,18 @@
       <c r="M51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
@@ -4233,7 +4593,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4256,10 +4616,18 @@
       <c r="M52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
@@ -4291,7 +4659,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4314,10 +4682,18 @@
       <c r="M53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
@@ -4345,11 +4721,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4372,10 +4748,18 @@
       <c r="M54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
@@ -4403,11 +4787,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4430,10 +4814,18 @@
       <c r="M55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
+      <c r="N55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
@@ -4465,7 +4857,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4488,10 +4880,18 @@
       <c r="M56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
@@ -4519,11 +4919,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -4546,10 +4946,18 @@
       <c r="M57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
+      <c r="N57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
@@ -4577,11 +4985,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4604,10 +5012,18 @@
       <c r="M58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
@@ -4639,7 +5055,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -4662,10 +5078,18 @@
       <c r="M59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
+      <c r="N59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="37"/>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
@@ -4697,7 +5121,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4720,10 +5144,18 @@
       <c r="M60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
@@ -4755,7 +5187,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4778,10 +5210,18 @@
       <c r="M61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
@@ -4809,11 +5249,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4836,10 +5276,18 @@
       <c r="M62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="37"/>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
@@ -4867,11 +5315,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4894,10 +5342,18 @@
       <c r="M63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
+      <c r="N63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="37"/>
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
@@ -4925,11 +5381,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -4952,10 +5408,18 @@
       <c r="M64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
+      <c r="N64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R64" s="37"/>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
@@ -4983,11 +5447,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5010,10 +5474,18 @@
       <c r="M65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
@@ -5045,7 +5517,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5068,10 +5540,18 @@
       <c r="M66" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="37"/>
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
@@ -5103,7 +5583,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5126,10 +5606,18 @@
       <c r="M67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
+      <c r="N67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="37"/>
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
@@ -5161,7 +5649,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -5184,10 +5672,18 @@
       <c r="M68" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="37"/>
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
@@ -5219,7 +5715,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5242,10 +5738,18 @@
       <c r="M69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
+      <c r="N69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="37"/>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
@@ -5277,7 +5781,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5300,10 +5804,18 @@
       <c r="M70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
@@ -5331,11 +5843,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5358,10 +5870,18 @@
       <c r="M71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
+      <c r="N71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
       <c r="T71" s="37"/>
@@ -5393,7 +5913,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5416,10 +5936,18 @@
       <c r="M72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="37"/>
       <c r="S72" s="37"/>
       <c r="T72" s="37"/>
@@ -5451,7 +5979,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5474,10 +6002,18 @@
       <c r="M73" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
+      <c r="N73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="37"/>
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
@@ -5505,11 +6041,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5532,10 +6068,18 @@
       <c r="M74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
+      <c r="N74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="37"/>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
@@ -5563,11 +6107,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5590,10 +6134,18 @@
       <c r="M75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
+      <c r="N75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R75" s="37"/>
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
@@ -5625,7 +6177,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -5648,10 +6200,18 @@
       <c r="M76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="37"/>
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
@@ -5679,11 +6239,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -5706,10 +6266,18 @@
       <c r="M77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="R77" s="37"/>
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
@@ -5741,7 +6309,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>20</v>
@@ -5764,10 +6332,18 @@
       <c r="M78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="37"/>
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
@@ -5795,11 +6371,11 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -5822,10 +6398,18 @@
       <c r="M79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
+      <c r="N79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="37"/>
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
@@ -5857,7 +6441,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>20</v>
@@ -5880,10 +6464,18 @@
       <c r="M80" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
+      <c r="N80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="37"/>
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
@@ -5915,7 +6507,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -5938,10 +6530,18 @@
       <c r="M81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
+      <c r="N81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R81" s="37"/>
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
@@ -5969,11 +6569,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>20</v>
@@ -5996,10 +6596,18 @@
       <c r="M82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
+      <c r="N82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R82" s="37"/>
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1225,10 +1225,9 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" hidden="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" hidden="1" min="7" max="17" width="10.75"/>
-    <col customWidth="1" min="18" max="26" width="10.75"/>
+    <col customWidth="1" min="4" max="4" width="9.75"/>
+    <col customWidth="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1623,7 +1622,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1658,7 +1657,9 @@
       <c r="Q7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1724,7 +1725,9 @@
       <c r="Q8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="37"/>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
@@ -1755,7 +1758,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1790,7 +1793,9 @@
       <c r="Q9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="37"/>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
@@ -1821,7 +1826,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1856,7 +1861,9 @@
       <c r="Q10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="37"/>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -1887,7 +1894,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1922,7 +1929,9 @@
       <c r="Q11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="37"/>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -1953,7 +1962,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1988,7 +1997,9 @@
       <c r="Q12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="37"/>
+      <c r="R12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
@@ -2019,7 +2030,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2054,7 +2065,9 @@
       <c r="Q13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="37"/>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
@@ -2085,7 +2098,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2120,7 +2133,9 @@
       <c r="Q14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="37"/>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2186,7 +2201,9 @@
       <c r="Q15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="37"/>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
@@ -2217,7 +2234,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2252,7 +2269,9 @@
       <c r="Q16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="37"/>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
@@ -2283,7 +2302,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2318,7 +2337,9 @@
       <c r="Q17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="37"/>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -2349,7 +2370,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2384,7 +2405,9 @@
       <c r="Q18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="37"/>
+      <c r="R18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
@@ -2415,7 +2438,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>20</v>
@@ -2450,7 +2473,9 @@
       <c r="Q19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="37"/>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
@@ -2481,7 +2506,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2516,7 +2541,9 @@
       <c r="Q20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="37"/>
+      <c r="R20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
@@ -2547,7 +2574,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2582,7 +2609,9 @@
       <c r="Q21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="37"/>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
@@ -2613,7 +2642,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2648,7 +2677,9 @@
       <c r="Q22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="37"/>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
@@ -2679,7 +2710,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2714,7 +2745,9 @@
       <c r="Q23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="37"/>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
@@ -2745,7 +2778,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2780,7 +2813,9 @@
       <c r="Q24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="37"/>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -2811,7 +2846,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2846,7 +2881,9 @@
       <c r="Q25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="37"/>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
@@ -2873,7 +2910,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2912,7 +2949,9 @@
       <c r="Q26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="37"/>
+      <c r="R26" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
@@ -2939,7 +2978,7 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -2978,7 +3017,9 @@
       <c r="Q27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="37"/>
+      <c r="R27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
@@ -3009,7 +3050,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3044,7 +3085,9 @@
       <c r="Q28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="37"/>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -3075,7 +3118,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -3110,7 +3153,9 @@
       <c r="Q29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="37"/>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -3141,7 +3186,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3176,7 +3221,9 @@
       <c r="Q30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="37"/>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -3207,7 +3254,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3242,7 +3289,9 @@
       <c r="Q31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="37"/>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3273,7 +3322,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3308,7 +3357,9 @@
       <c r="Q32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="37"/>
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
@@ -3339,7 +3390,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3374,7 +3425,9 @@
       <c r="Q33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="37"/>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
@@ -3405,7 +3458,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3440,7 +3493,9 @@
       <c r="Q34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="37"/>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
@@ -3471,7 +3526,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3506,7 +3561,9 @@
       <c r="Q35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="37"/>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3537,7 +3594,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3572,7 +3629,9 @@
       <c r="Q36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="37"/>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
@@ -3603,7 +3662,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3638,7 +3697,9 @@
       <c r="Q37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="37"/>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
@@ -3669,7 +3730,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3704,7 +3765,9 @@
       <c r="Q38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="37"/>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
@@ -3735,7 +3798,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3770,7 +3833,9 @@
       <c r="Q39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="37"/>
+      <c r="R39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -3801,7 +3866,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3836,7 +3901,9 @@
       <c r="Q40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="37"/>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
@@ -3867,7 +3934,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3902,7 +3969,9 @@
       <c r="Q41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="37"/>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
@@ -3933,7 +4002,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3968,7 +4037,9 @@
       <c r="Q42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="37"/>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -3999,7 +4070,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -4034,7 +4105,9 @@
       <c r="Q43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="37"/>
+      <c r="R43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
@@ -4065,7 +4138,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4100,7 +4173,9 @@
       <c r="Q44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="37"/>
+      <c r="R44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
@@ -4131,7 +4206,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4166,7 +4241,9 @@
       <c r="Q45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="37"/>
+      <c r="R45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -4197,7 +4274,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4232,7 +4309,9 @@
       <c r="Q46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="37"/>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
@@ -4263,7 +4342,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4298,7 +4377,9 @@
       <c r="Q47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="37"/>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
@@ -4329,7 +4410,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4364,7 +4445,9 @@
       <c r="Q48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="37"/>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
@@ -4395,7 +4478,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4430,7 +4513,9 @@
       <c r="Q49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="37"/>
+      <c r="R49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
@@ -4461,7 +4546,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4496,7 +4581,9 @@
       <c r="Q50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="37"/>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
@@ -4527,7 +4614,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4562,7 +4649,9 @@
       <c r="Q51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="37"/>
+      <c r="R51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -4593,7 +4682,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4628,7 +4717,9 @@
       <c r="Q52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R52" s="37"/>
+      <c r="R52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -4659,7 +4750,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4694,7 +4785,9 @@
       <c r="Q53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="37"/>
+      <c r="R53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -4725,7 +4818,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4760,7 +4853,9 @@
       <c r="Q54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="37"/>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -4791,7 +4886,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4826,7 +4921,9 @@
       <c r="Q55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="37"/>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -4853,7 +4950,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -4892,7 +4989,9 @@
       <c r="Q56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="37"/>
+      <c r="R56" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4923,7 +5022,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -4958,7 +5057,9 @@
       <c r="Q57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="37"/>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -4985,7 +5086,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -5024,7 +5125,9 @@
       <c r="Q58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="37"/>
+      <c r="R58" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -5055,7 +5158,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -5090,7 +5193,9 @@
       <c r="Q59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="37"/>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -5117,7 +5222,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -5156,7 +5261,9 @@
       <c r="Q60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="37"/>
+      <c r="R60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -5187,7 +5294,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5222,7 +5329,9 @@
       <c r="Q61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="37"/>
+      <c r="R61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
@@ -5253,7 +5362,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5288,7 +5397,9 @@
       <c r="Q62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="37"/>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -5319,7 +5430,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5354,7 +5465,9 @@
       <c r="Q63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="37"/>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
@@ -5385,7 +5498,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -5420,7 +5533,9 @@
       <c r="Q64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="37"/>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
@@ -5451,7 +5566,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5486,7 +5601,9 @@
       <c r="Q65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="37"/>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
@@ -5517,7 +5634,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5552,7 +5669,9 @@
       <c r="Q66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="37"/>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
@@ -5579,7 +5698,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5618,7 +5737,9 @@
       <c r="Q67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="37"/>
+      <c r="R67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
@@ -5649,7 +5770,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -5684,7 +5805,9 @@
       <c r="Q68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="37"/>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
       <c r="U68" s="37"/>
@@ -5715,7 +5838,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5750,7 +5873,9 @@
       <c r="Q69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="37"/>
+      <c r="R69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
@@ -5781,7 +5906,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5816,7 +5941,9 @@
       <c r="Q70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="37"/>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
@@ -5847,7 +5974,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5882,7 +6009,9 @@
       <c r="Q71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="37"/>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="37"/>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
@@ -5913,7 +6042,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5948,7 +6077,9 @@
       <c r="Q72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="37"/>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="37"/>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
@@ -5979,7 +6110,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6014,7 +6145,9 @@
       <c r="Q73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="37"/>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
@@ -6045,7 +6178,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6080,7 +6213,9 @@
       <c r="Q74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="37"/>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
@@ -6111,7 +6246,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6146,7 +6281,9 @@
       <c r="Q75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="37"/>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
       <c r="U75" s="37"/>
@@ -6177,7 +6314,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -6212,7 +6349,9 @@
       <c r="Q76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="37"/>
+      <c r="R76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
       <c r="U76" s="37"/>
@@ -6239,7 +6378,7 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
@@ -6278,7 +6417,9 @@
       <c r="Q77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R77" s="37"/>
+      <c r="R77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
@@ -6309,7 +6450,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>20</v>
@@ -6344,7 +6485,9 @@
       <c r="Q78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="37"/>
+      <c r="R78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
       <c r="U78" s="37"/>
@@ -6375,7 +6518,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -6410,7 +6553,9 @@
       <c r="Q79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="37"/>
+      <c r="R79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
       <c r="U79" s="37"/>
@@ -6441,7 +6586,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>20</v>
@@ -6476,7 +6621,9 @@
       <c r="Q80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R80" s="37"/>
+      <c r="R80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
       <c r="U80" s="37"/>
@@ -6507,7 +6654,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -6542,7 +6689,9 @@
       <c r="Q81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="37"/>
+      <c r="R81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
       <c r="U81" s="37"/>
@@ -6573,7 +6722,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>20</v>
@@ -6608,7 +6757,9 @@
       <c r="Q82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R82" s="37"/>
+      <c r="R82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>
       <c r="U82" s="37"/>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1618,11 +1618,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1660,8 +1660,12 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1690,7 +1694,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1728,8 +1732,12 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
+      <c r="S8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1758,7 +1766,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1796,8 +1804,12 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="S9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -1826,7 +1838,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1864,8 +1876,12 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="S10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -1894,7 +1910,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1932,8 +1948,12 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="S11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -1962,7 +1982,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2000,8 +2020,12 @@
       <c r="R12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="S12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2030,7 +2054,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2068,8 +2092,12 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -2098,7 +2126,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2136,8 +2164,12 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -2162,11 +2194,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2204,8 +2236,12 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -2234,7 +2270,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2272,8 +2308,12 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -2302,7 +2342,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2340,8 +2380,12 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="S17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -2366,11 +2410,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2408,8 +2452,12 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="S18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -2438,7 +2486,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>20</v>
@@ -2476,8 +2524,12 @@
       <c r="R19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -2506,7 +2558,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2544,8 +2596,12 @@
       <c r="R20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -2574,7 +2630,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2612,8 +2668,12 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -2638,11 +2698,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2680,8 +2740,12 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -2706,11 +2770,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2748,8 +2812,12 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
@@ -2774,11 +2842,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2805,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P24" s="29" t="s">
         <v>21</v>
@@ -2816,8 +2884,12 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
@@ -2842,11 +2914,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2884,8 +2956,12 @@
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
@@ -2914,7 +2990,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2952,8 +3028,12 @@
       <c r="R26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
@@ -2978,11 +3058,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>21</v>
@@ -3020,8 +3100,12 @@
       <c r="R27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="S27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
@@ -3050,7 +3134,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3088,8 +3172,12 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="S28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
@@ -3118,7 +3206,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -3156,8 +3244,12 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="S29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -3186,7 +3278,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3224,8 +3316,12 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
@@ -3250,11 +3346,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3292,8 +3388,12 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="S31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
@@ -3322,7 +3422,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3360,8 +3460,12 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
@@ -3390,7 +3494,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3428,8 +3532,12 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="S33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -3458,7 +3566,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3496,8 +3604,12 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
@@ -3522,11 +3634,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3564,8 +3676,12 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="S35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -3594,7 +3710,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3632,8 +3748,12 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="S36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
@@ -3662,7 +3782,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3700,8 +3820,12 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="S37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3730,7 +3854,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3768,8 +3892,12 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3798,7 +3926,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3836,8 +3964,12 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="S39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
@@ -3866,7 +3998,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3904,8 +4036,12 @@
       <c r="R40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="S40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
@@ -3930,11 +4066,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3972,8 +4108,12 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="S41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
@@ -4002,7 +4142,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4040,8 +4180,12 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="S42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -4066,11 +4210,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -4108,8 +4252,12 @@
       <c r="R43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -4138,7 +4286,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4176,8 +4324,12 @@
       <c r="R44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="S44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -4202,11 +4354,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4244,8 +4396,12 @@
       <c r="R45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -4270,11 +4426,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4312,8 +4468,12 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="S46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -4342,7 +4502,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4380,8 +4540,12 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="S47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -4410,7 +4574,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4448,8 +4612,12 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -4474,11 +4642,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4516,8 +4684,12 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="S49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -4546,7 +4718,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4584,8 +4756,12 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="S50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
@@ -4610,11 +4786,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4652,8 +4828,12 @@
       <c r="R51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="S51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
@@ -4682,7 +4862,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4720,8 +4900,12 @@
       <c r="R52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -4746,11 +4930,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4788,8 +4972,12 @@
       <c r="R53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="S53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
@@ -4818,7 +5006,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4856,8 +5044,12 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="S54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -4886,7 +5078,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4924,8 +5116,12 @@
       <c r="R55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="S55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -4954,7 +5150,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4992,8 +5188,12 @@
       <c r="R56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -5022,7 +5222,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -5060,8 +5260,12 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="S57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -5090,7 +5294,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5128,8 +5332,12 @@
       <c r="R58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="S58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -5154,11 +5362,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -5196,8 +5404,12 @@
       <c r="R59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="S59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
@@ -5222,11 +5434,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5264,8 +5476,12 @@
       <c r="R60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="S60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
@@ -5294,7 +5510,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5332,8 +5548,12 @@
       <c r="R61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
+      <c r="S61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
@@ -5362,7 +5582,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5400,8 +5620,12 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="S62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
@@ -5430,7 +5654,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5468,8 +5692,12 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U63" s="37"/>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
@@ -5494,11 +5722,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -5536,8 +5764,12 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U64" s="37"/>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
@@ -5566,7 +5798,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5604,8 +5836,12 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
+      <c r="S65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
@@ -5634,7 +5870,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5672,8 +5908,12 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
@@ -5702,7 +5942,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5740,8 +5980,12 @@
       <c r="R67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
+      <c r="S67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
@@ -5770,7 +6014,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -5808,8 +6052,12 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
+      <c r="S68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="37"/>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
@@ -5834,11 +6082,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5876,8 +6124,12 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
+      <c r="S69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U69" s="37"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
@@ -5906,7 +6158,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5944,8 +6196,12 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
+      <c r="S70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
@@ -5974,7 +6230,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6012,8 +6268,12 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
+      <c r="S71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
@@ -6038,11 +6298,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6080,8 +6340,12 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
+      <c r="S72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U72" s="37"/>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
@@ -6110,7 +6374,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6148,8 +6412,12 @@
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
+      <c r="S73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U73" s="37"/>
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
@@ -6174,7 +6442,7 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
@@ -6216,8 +6484,12 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
+      <c r="S74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U74" s="37"/>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
@@ -6242,11 +6514,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6284,8 +6556,12 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
+      <c r="S75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U75" s="37"/>
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>
@@ -6314,7 +6590,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -6352,8 +6628,12 @@
       <c r="R76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
+      <c r="S76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U76" s="37"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
@@ -6378,11 +6658,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -6420,8 +6700,12 @@
       <c r="R77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
+      <c r="S77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
       <c r="W77" s="37"/>
@@ -6450,7 +6734,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>20</v>
@@ -6488,8 +6772,12 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
+      <c r="S78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U78" s="37"/>
       <c r="V78" s="37"/>
       <c r="W78" s="37"/>
@@ -6514,11 +6802,11 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -6556,8 +6844,12 @@
       <c r="R79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
+      <c r="S79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U79" s="37"/>
       <c r="V79" s="37"/>
       <c r="W79" s="37"/>
@@ -6586,7 +6878,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>20</v>
@@ -6624,8 +6916,12 @@
       <c r="R80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
+      <c r="S80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U80" s="37"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
@@ -6654,7 +6950,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -6692,8 +6988,12 @@
       <c r="R81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
+      <c r="S81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U81" s="37"/>
       <c r="V81" s="37"/>
       <c r="W81" s="37"/>
@@ -6722,7 +7022,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>20</v>
@@ -6760,8 +7060,12 @@
       <c r="R82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
+      <c r="S82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U82" s="37"/>
       <c r="V82" s="37"/>
       <c r="W82" s="37"/>

--- a/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1666,9 +1666,7 @@
       <c r="T7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -1696,7 +1694,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1740,9 +1738,7 @@
       <c r="T8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
@@ -1766,7 +1762,7 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
@@ -1814,9 +1810,7 @@
       <c r="T9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
@@ -1844,7 +1838,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1888,9 +1882,7 @@
       <c r="T10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
@@ -1914,7 +1906,7 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1962,9 +1954,7 @@
       <c r="T11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
@@ -1992,7 +1982,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2036,9 +2026,7 @@
       <c r="T12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
@@ -2066,7 +2054,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2110,9 +2098,7 @@
       <c r="T13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
@@ -2140,7 +2126,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2184,9 +2170,7 @@
       <c r="T14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
@@ -2214,7 +2198,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2258,9 +2242,7 @@
       <c r="T15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
@@ -2288,7 +2270,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2332,9 +2314,7 @@
       <c r="T16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
@@ -2362,7 +2342,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2406,9 +2386,7 @@
       <c r="T17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
@@ -2436,7 +2414,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2480,9 +2458,7 @@
       <c r="T18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
@@ -2506,7 +2482,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2554,9 +2530,7 @@
       <c r="T19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
@@ -2584,7 +2558,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2628,9 +2602,7 @@
       <c r="T20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
       <c r="X20" s="37"/>
@@ -2654,7 +2626,7 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2702,9 +2674,7 @@
       <c r="T21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
@@ -2732,7 +2702,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2776,9 +2746,7 @@
       <c r="T22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
@@ -2802,7 +2770,7 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -2850,9 +2818,7 @@
       <c r="T23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
@@ -2880,7 +2846,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2924,9 +2890,7 @@
       <c r="T24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
@@ -2954,7 +2918,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2998,9 +2962,7 @@
       <c r="T25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
@@ -3028,7 +2990,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3072,9 +3034,7 @@
       <c r="T26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
@@ -3098,7 +3058,7 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -3146,9 +3106,7 @@
       <c r="T27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
@@ -3172,7 +3130,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
@@ -3220,9 +3178,7 @@
       <c r="T28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U28" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
@@ -3250,7 +3206,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>21</v>
@@ -3294,9 +3250,7 @@
       <c r="T29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
@@ -3324,7 +3278,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3368,9 +3322,7 @@
       <c r="T30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
@@ -3398,7 +3350,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3442,9 +3394,7 @@
       <c r="T31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
@@ -3472,7 +3422,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3516,9 +3466,7 @@
       <c r="T32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
@@ -3546,7 +3494,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3590,9 +3538,7 @@
       <c r="T33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U33" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
@@ -3616,7 +3562,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3664,9 +3610,7 @@
       <c r="T34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U34" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
@@ -3694,7 +3638,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3738,9 +3682,7 @@
       <c r="T35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U35" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
@@ -3768,7 +3710,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3812,9 +3754,7 @@
       <c r="T36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
@@ -3838,7 +3778,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3886,9 +3826,7 @@
       <c r="T37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
@@ -3916,7 +3854,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3960,9 +3898,7 @@
       <c r="T38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
@@ -3990,7 +3926,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -4034,9 +3970,7 @@
       <c r="T39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U39" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
@@ -4064,7 +3998,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4108,9 +4042,7 @@
       <c r="T40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
@@ -4134,7 +4066,7 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -4182,9 +4114,7 @@
       <c r="T41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
@@ -4212,7 +4142,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4256,9 +4186,7 @@
       <c r="T42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
@@ -4286,7 +4214,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>21</v>
@@ -4330,9 +4258,7 @@
       <c r="T43" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U43" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
@@ -4360,7 +4286,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4404,9 +4330,7 @@
       <c r="T44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
       <c r="X44" s="37"/>
@@ -4434,7 +4358,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4478,9 +4402,7 @@
       <c r="T45" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U45" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
@@ -4508,7 +4430,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4552,9 +4474,7 @@
       <c r="T46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U46" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
@@ -4582,7 +4502,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4626,9 +4546,7 @@
       <c r="T47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U47" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
@@ -4656,7 +4574,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>21</v>
@@ -4700,9 +4618,7 @@
       <c r="T48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
@@ -4726,7 +4642,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -4774,9 +4690,7 @@
       <c r="T49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U49" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
@@ -4804,7 +4718,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4848,9 +4762,7 @@
       <c r="T50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U50" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
@@ -4878,7 +4790,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4922,9 +4834,7 @@
       <c r="T51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U51" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
@@ -4948,7 +4858,7 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -4996,9 +4906,7 @@
       <c r="T52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
@@ -5026,7 +4934,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -5070,9 +4978,7 @@
       <c r="T53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U53" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
@@ -5100,7 +5006,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -5144,9 +5050,7 @@
       <c r="T54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U54" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
@@ -5174,7 +5078,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -5218,9 +5122,7 @@
       <c r="T55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U55" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
@@ -5248,7 +5150,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5292,9 +5194,7 @@
       <c r="T56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
@@ -5322,7 +5222,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>21</v>
@@ -5366,9 +5266,7 @@
       <c r="T57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U57" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
       <c r="X57" s="37"/>
@@ -5396,7 +5294,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5440,9 +5338,7 @@
       <c r="T58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U58" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
@@ -5470,7 +5366,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -5514,9 +5410,7 @@
       <c r="T59" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U59" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
@@ -5544,7 +5438,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5588,9 +5482,7 @@
       <c r="T60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
@@ -5618,7 +5510,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5662,9 +5554,7 @@
       <c r="T61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U61" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
       <c r="X61" s="37"/>
@@ -5692,7 +5582,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5736,9 +5626,7 @@
       <c r="T62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U62" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
       <c r="X62" s="37"/>
@@ -5766,7 +5654,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5810,9 +5698,7 @@
       <c r="T63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U63" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U63" s="37"/>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
       <c r="X63" s="37"/>
@@ -5840,7 +5726,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -5884,9 +5770,7 @@
       <c r="T64" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U64" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U64" s="37"/>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
       <c r="X64" s="37"/>
@@ -5910,7 +5794,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -5958,9 +5842,7 @@
       <c r="T65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U65" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U65" s="37"/>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
       <c r="X65" s="37"/>
@@ -5984,7 +5866,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -6032,9 +5914,7 @@
       <c r="T66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
       <c r="X66" s="37"/>
@@ -6062,7 +5942,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -6106,9 +5986,7 @@
       <c r="T67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U67" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U67" s="37"/>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
       <c r="X67" s="37"/>
@@ -6136,7 +6014,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>21</v>
@@ -6180,9 +6058,7 @@
       <c r="T68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U68" s="37"/>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
       <c r="X68" s="37"/>
@@ -6210,7 +6086,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -6254,9 +6130,7 @@
       <c r="T69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U69" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U69" s="37"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
@@ -6280,7 +6154,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -6328,9 +6202,7 @@
       <c r="T70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U70" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
@@ -6358,7 +6230,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6402,9 +6274,7 @@
       <c r="T71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U71" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
@@ -6432,7 +6302,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6476,9 +6346,7 @@
       <c r="T72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U72" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U72" s="37"/>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
       <c r="X72" s="37"/>
@@ -6506,7 +6374,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6550,9 +6418,7 @@
       <c r="T73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U73" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U73" s="37"/>
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
@@ -6580,7 +6446,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6624,9 +6490,7 @@
       <c r="T74" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U74" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U74" s="37"/>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
@@ -6654,7 +6518,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6698,9 +6562,7 @@
       <c r="T75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U75" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U75" s="37"/>
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>
       <c r="X75" s="37"/>
@@ -6728,7 +6590,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -6772,9 +6634,7 @@
       <c r="T76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U76" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U76" s="37"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
       <c r="X76" s="37"/>
@@ -6798,7 +6658,7 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
@@ -6846,9 +6706,7 @@
       <c r="T77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U77" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U77" s="37"/>
       <c r="V77" s="37"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
@@ -6872,7 +6730,7 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -6920,9 +6778,7 @@
       <c r="T78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U78" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U78" s="37"/>
       <c r="V78" s="37"/>
       <c r="W78" s="37"/>
       <c r="X78" s="37"/>
@@ -6950,7 +6806,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>20</v>
@@ -6994,9 +6850,7 @@
       <c r="T79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U79" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U79" s="37"/>
       <c r="V79" s="37"/>
       <c r="W79" s="37"/>
       <c r="X79" s="37"/>
@@ -7024,7 +6878,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>20</v>
@@ -7068,9 +6922,7 @@
       <c r="T80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U80" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U80" s="37"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
@@ -7098,7 +6950,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>20</v>
@@ -7142,9 +6994,7 @@
       <c r="T81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U81" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="U81" s="37"/>
       <c r="V81" s="37"/>
       <c r="W81" s="37"/>
       <c r="X81" s="37"/>
@@ -7168,7 +7018,7 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
@@ -7216,9 +7066,7 @@
       <c r="T82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U82" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="U82" s="37"/>
       <c r="V82" s="37"/>
       <c r="W82" s="37"/>
       <c r="X82" s="37"/>
